--- a/biology/Médecine/Hôpital_Robert_Debré_de_Reims/Hôpital_Robert_Debré_de_Reims.xlsx
+++ b/biology/Médecine/Hôpital_Robert_Debré_de_Reims/Hôpital_Robert_Debré_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Robert_Debr%C3%A9_de_Reims</t>
+          <t>Hôpital_Robert_Debré_de_Reims</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Hôpital Robert Debré est un établissement implanté à Reims, en France. Il fait partie des établissements constitutifs du CHU de Reims
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Robert_Debr%C3%A9_de_Reims</t>
+          <t>Hôpital_Robert_Debré_de_Reims</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Hôpital Robert Debré est situé rue du Général Koenig à Reims dans la Marne en France.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Robert_Debr%C3%A9_de_Reims</t>
+          <t>Hôpital_Robert_Debré_de_Reims</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959, le Conseil d’administration du Centre Hospitalier Régional (CHR) décide la construction d’un centre médico-chirurgical de 800 lits.
 Le 4 juillet 1972, le directeur des Hôpitaux de Paris du ministère de la Santé Publique pose la première pierre d’un chantier qui devait durer 3 ans. Il sera constitué d’un bâtiment de huit étages pour 792 lits et de services médico-techniques (radiologie, bloc opératoire, laboratoires et une pharmacie).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Robert_Debr%C3%A9_de_Reims</t>
+          <t>Hôpital_Robert_Debré_de_Reims</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Le projet de reconstruction du CHU de Reims</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reconstruction du CHU de Reims prévoit la construction de deux nouveaux bâtiments. Le premier, dont la construction a débuté le ?? , concerne un bâtiment majoritairement destiné à l’activité chirurgicale. Le coût de ce premier bâtiment est évalué à 230 millions d’euros.
 Le second bâtiment, destiné aux activités autres que chirurgicales, devrait être construit sur la période de 2024 à 2028.
-Ce projet conduira, entre 2029 et 2031, à la déconstruction des hôpitaux Robert Debré et Maison Blanche[1].  
+Ce projet conduira, entre 2029 et 2031, à la déconstruction des hôpitaux Robert Debré et Maison Blanche.  
 À la fin des travaux, pour un coût total estimé à 554 millions d’euros, le nouvel hôpital du CHU devrait comporter 974 lits.
 </t>
         </is>
